--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -537,52 +537,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.21407216372569</v>
+        <v>3.939755666666667</v>
       </c>
       <c r="H2">
-        <v>3.21407216372569</v>
+        <v>11.819267</v>
       </c>
       <c r="I2">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940782</v>
       </c>
       <c r="J2">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940781</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.28596421155457</v>
+        <v>0.6126093333333333</v>
       </c>
       <c r="N2">
-        <v>0.28596421155457</v>
+        <v>1.837828</v>
       </c>
       <c r="O2">
-        <v>0.03368518127430672</v>
+        <v>0.06259089811836467</v>
       </c>
       <c r="P2">
-        <v>0.03368518127430672</v>
+        <v>0.06259089811836467</v>
       </c>
       <c r="Q2">
-        <v>0.9191096121793079</v>
+        <v>2.413531092452889</v>
       </c>
       <c r="R2">
-        <v>0.9191096121793079</v>
+        <v>21.721779832076</v>
       </c>
       <c r="S2">
-        <v>0.01878916170573723</v>
+        <v>0.03669878440707592</v>
       </c>
       <c r="T2">
-        <v>0.01878916170573723</v>
+        <v>0.03669878440707591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.21407216372569</v>
+        <v>3.939755666666667</v>
       </c>
       <c r="H3">
-        <v>3.21407216372569</v>
+        <v>11.819267</v>
       </c>
       <c r="I3">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940782</v>
       </c>
       <c r="J3">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940781</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.40396594433942</v>
+        <v>1.423547666666667</v>
       </c>
       <c r="N3">
-        <v>1.40396594433942</v>
+        <v>4.270643</v>
       </c>
       <c r="O3">
-        <v>0.1653803008457992</v>
+        <v>0.1454452652331487</v>
       </c>
       <c r="P3">
-        <v>0.1653803008457992</v>
+        <v>0.1454452652331487</v>
       </c>
       <c r="Q3">
-        <v>4.512447860520181</v>
+        <v>5.608429986520111</v>
       </c>
       <c r="R3">
-        <v>4.512447860520181</v>
+        <v>50.475869878681</v>
       </c>
       <c r="S3">
-        <v>0.09224700886218243</v>
+        <v>0.08527860427449573</v>
       </c>
       <c r="T3">
-        <v>0.09224700886218243</v>
+        <v>0.08527860427449573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.21407216372569</v>
+        <v>3.939755666666667</v>
       </c>
       <c r="H4">
-        <v>3.21407216372569</v>
+        <v>11.819267</v>
       </c>
       <c r="I4">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940782</v>
       </c>
       <c r="J4">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940781</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.03891957622135</v>
+        <v>1.189604</v>
       </c>
       <c r="N4">
-        <v>1.03891957622135</v>
+        <v>3.568812</v>
       </c>
       <c r="O4">
-        <v>0.1223796294794876</v>
+        <v>0.1215430107146029</v>
       </c>
       <c r="P4">
-        <v>0.1223796294794876</v>
+        <v>0.1215430107146029</v>
       </c>
       <c r="Q4">
-        <v>3.339162490282731</v>
+        <v>4.686749100089334</v>
       </c>
       <c r="R4">
-        <v>3.339162490282731</v>
+        <v>42.180741900804</v>
       </c>
       <c r="S4">
-        <v>0.06826178636396915</v>
+        <v>0.07126404765700894</v>
       </c>
       <c r="T4">
-        <v>0.06826178636396915</v>
+        <v>0.07126404765700894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.21407216372569</v>
+        <v>3.939755666666667</v>
       </c>
       <c r="H5">
-        <v>3.21407216372569</v>
+        <v>11.819267</v>
       </c>
       <c r="I5">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940782</v>
       </c>
       <c r="J5">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940781</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.56544635492449</v>
+        <v>1.852141</v>
       </c>
       <c r="N5">
-        <v>1.56544635492449</v>
+        <v>5.556423000000001</v>
       </c>
       <c r="O5">
-        <v>0.1844019010426811</v>
+        <v>0.1892350676426402</v>
       </c>
       <c r="P5">
-        <v>0.1844019010426811</v>
+        <v>0.1892350676426403</v>
       </c>
       <c r="Q5">
-        <v>5.03145755316865</v>
+        <v>7.296983000215667</v>
       </c>
       <c r="R5">
-        <v>5.03145755316865</v>
+        <v>65.67284700194101</v>
       </c>
       <c r="S5">
-        <v>0.1028570132760136</v>
+        <v>0.1109537833526957</v>
       </c>
       <c r="T5">
-        <v>0.1028570132760136</v>
+        <v>0.1109537833526957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.21407216372569</v>
+        <v>3.939755666666667</v>
       </c>
       <c r="H6">
-        <v>3.21407216372569</v>
+        <v>11.819267</v>
       </c>
       <c r="I6">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940782</v>
       </c>
       <c r="J6">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940781</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.34051080281529</v>
+        <v>3.375897666666667</v>
       </c>
       <c r="N6">
-        <v>3.34051080281529</v>
+        <v>10.127693</v>
       </c>
       <c r="O6">
-        <v>0.3934957851190404</v>
+        <v>0.3449187849663162</v>
       </c>
       <c r="P6">
-        <v>0.3934957851190404</v>
+        <v>0.3449187849663163</v>
       </c>
       <c r="Q6">
-        <v>10.73664278395358</v>
+        <v>13.30021196233678</v>
       </c>
       <c r="R6">
-        <v>10.73664278395358</v>
+        <v>119.701907661031</v>
       </c>
       <c r="S6">
-        <v>0.2194868977227983</v>
+        <v>0.2022354768498749</v>
       </c>
       <c r="T6">
-        <v>0.2194868977227983</v>
+        <v>0.2022354768498749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.21407216372569</v>
+        <v>3.939755666666667</v>
       </c>
       <c r="H7">
-        <v>3.21407216372569</v>
+        <v>11.819267</v>
       </c>
       <c r="I7">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940782</v>
       </c>
       <c r="J7">
-        <v>0.557787163225647</v>
+        <v>0.5863278129940781</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.854510986331834</v>
+        <v>1.333715</v>
       </c>
       <c r="N7">
-        <v>0.854510986331834</v>
+        <v>4.001145</v>
       </c>
       <c r="O7">
-        <v>0.100657202238685</v>
+        <v>0.1362669733249271</v>
       </c>
       <c r="P7">
-        <v>0.100657202238685</v>
+        <v>0.1362669733249272</v>
       </c>
       <c r="Q7">
-        <v>2.746459974766931</v>
+        <v>5.254511228968333</v>
       </c>
       <c r="R7">
-        <v>2.746459974766931</v>
+        <v>47.29060106071501</v>
       </c>
       <c r="S7">
-        <v>0.05614529529494635</v>
+        <v>0.07989711645292692</v>
       </c>
       <c r="T7">
-        <v>0.05614529529494635</v>
+        <v>0.07989711645292692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.98682043166929</v>
+        <v>2.182004666666666</v>
       </c>
       <c r="H8">
-        <v>1.98682043166929</v>
+        <v>6.546014</v>
       </c>
       <c r="I8">
-        <v>0.3448033758940055</v>
+        <v>0.3247333419617831</v>
       </c>
       <c r="J8">
-        <v>0.3448033758940055</v>
+        <v>0.324733341961783</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.28596421155457</v>
+        <v>0.6126093333333333</v>
       </c>
       <c r="N8">
-        <v>0.28596421155457</v>
+        <v>1.837828</v>
       </c>
       <c r="O8">
-        <v>0.03368518127430672</v>
+        <v>0.06259089811836467</v>
       </c>
       <c r="P8">
-        <v>0.03368518127430672</v>
+        <v>0.06259089811836467</v>
       </c>
       <c r="Q8">
-        <v>0.568159538242819</v>
+        <v>1.336716424176889</v>
       </c>
       <c r="R8">
-        <v>0.568159538242819</v>
+        <v>12.030447817592</v>
       </c>
       <c r="S8">
-        <v>0.01161476422098249</v>
+        <v>0.02032535152236604</v>
       </c>
       <c r="T8">
-        <v>0.01161476422098249</v>
+        <v>0.02032535152236603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.98682043166929</v>
+        <v>2.182004666666666</v>
       </c>
       <c r="H9">
-        <v>1.98682043166929</v>
+        <v>6.546014</v>
       </c>
       <c r="I9">
-        <v>0.3448033758940055</v>
+        <v>0.3247333419617831</v>
       </c>
       <c r="J9">
-        <v>0.3448033758940055</v>
+        <v>0.324733341961783</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.40396594433942</v>
+        <v>1.423547666666667</v>
       </c>
       <c r="N9">
-        <v>1.40396594433942</v>
+        <v>4.270643</v>
       </c>
       <c r="O9">
-        <v>0.1653803008457992</v>
+        <v>0.1454452652331487</v>
       </c>
       <c r="P9">
-        <v>0.1653803008457992</v>
+        <v>0.1454452652331487</v>
       </c>
       <c r="Q9">
-        <v>2.789428223581429</v>
+        <v>3.106187651889111</v>
       </c>
       <c r="R9">
-        <v>2.789428223581429</v>
+        <v>27.955688867002</v>
       </c>
       <c r="S9">
-        <v>0.05702368603799783</v>
+        <v>0.04723092705167831</v>
       </c>
       <c r="T9">
-        <v>0.05702368603799783</v>
+        <v>0.04723092705167832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.98682043166929</v>
+        <v>2.182004666666666</v>
       </c>
       <c r="H10">
-        <v>1.98682043166929</v>
+        <v>6.546014</v>
       </c>
       <c r="I10">
-        <v>0.3448033758940055</v>
+        <v>0.3247333419617831</v>
       </c>
       <c r="J10">
-        <v>0.3448033758940055</v>
+        <v>0.324733341961783</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.03891957622135</v>
+        <v>1.189604</v>
       </c>
       <c r="N10">
-        <v>1.03891957622135</v>
+        <v>3.568812</v>
       </c>
       <c r="O10">
-        <v>0.1223796294794876</v>
+        <v>0.1215430107146029</v>
       </c>
       <c r="P10">
-        <v>0.1223796294794876</v>
+        <v>0.1215430107146029</v>
       </c>
       <c r="Q10">
-        <v>2.064146640897778</v>
+        <v>2.595721479485333</v>
       </c>
       <c r="R10">
-        <v>2.064146640897778</v>
+        <v>23.361493315368</v>
       </c>
       <c r="S10">
-        <v>0.04219690938518487</v>
+        <v>0.03946906806144981</v>
       </c>
       <c r="T10">
-        <v>0.04219690938518487</v>
+        <v>0.03946906806144981</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.98682043166929</v>
+        <v>2.182004666666666</v>
       </c>
       <c r="H11">
-        <v>1.98682043166929</v>
+        <v>6.546014</v>
       </c>
       <c r="I11">
-        <v>0.3448033758940055</v>
+        <v>0.3247333419617831</v>
       </c>
       <c r="J11">
-        <v>0.3448033758940055</v>
+        <v>0.324733341961783</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.56544635492449</v>
+        <v>1.852141</v>
       </c>
       <c r="N11">
-        <v>1.56544635492449</v>
+        <v>5.556423000000001</v>
       </c>
       <c r="O11">
-        <v>0.1844019010426811</v>
+        <v>0.1892350676426402</v>
       </c>
       <c r="P11">
-        <v>0.1844019010426811</v>
+        <v>0.1892350676426403</v>
       </c>
       <c r="Q11">
-        <v>3.110260802646192</v>
+        <v>4.041380305324667</v>
       </c>
       <c r="R11">
-        <v>3.110260802646192</v>
+        <v>36.372422747922</v>
       </c>
       <c r="S11">
-        <v>0.06358239800078876</v>
+        <v>0.06145093593195863</v>
       </c>
       <c r="T11">
-        <v>0.06358239800078876</v>
+        <v>0.06145093593195863</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.98682043166929</v>
+        <v>2.182004666666666</v>
       </c>
       <c r="H12">
-        <v>1.98682043166929</v>
+        <v>6.546014</v>
       </c>
       <c r="I12">
-        <v>0.3448033758940055</v>
+        <v>0.3247333419617831</v>
       </c>
       <c r="J12">
-        <v>0.3448033758940055</v>
+        <v>0.324733341961783</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.34051080281529</v>
+        <v>3.375897666666667</v>
       </c>
       <c r="N12">
-        <v>3.34051080281529</v>
+        <v>10.127693</v>
       </c>
       <c r="O12">
-        <v>0.3934957851190404</v>
+        <v>0.3449187849663162</v>
       </c>
       <c r="P12">
-        <v>0.3934957851190404</v>
+        <v>0.3449187849663163</v>
       </c>
       <c r="Q12">
-        <v>6.636995115245401</v>
+        <v>7.366224462855778</v>
       </c>
       <c r="R12">
-        <v>6.636995115245401</v>
+        <v>66.296020165702</v>
       </c>
       <c r="S12">
-        <v>0.1356786751091073</v>
+        <v>0.1120066297475095</v>
       </c>
       <c r="T12">
-        <v>0.1356786751091073</v>
+        <v>0.1120066297475095</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.98682043166929</v>
+        <v>2.182004666666666</v>
       </c>
       <c r="H13">
-        <v>1.98682043166929</v>
+        <v>6.546014</v>
       </c>
       <c r="I13">
-        <v>0.3448033758940055</v>
+        <v>0.3247333419617831</v>
       </c>
       <c r="J13">
-        <v>0.3448033758940055</v>
+        <v>0.324733341961783</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.854510986331834</v>
+        <v>1.333715</v>
       </c>
       <c r="N13">
-        <v>0.854510986331834</v>
+        <v>4.001145</v>
       </c>
       <c r="O13">
-        <v>0.100657202238685</v>
+        <v>0.1362669733249271</v>
       </c>
       <c r="P13">
-        <v>0.100657202238685</v>
+        <v>0.1362669733249272</v>
       </c>
       <c r="Q13">
-        <v>1.697759886729965</v>
+        <v>2.910172354003333</v>
       </c>
       <c r="R13">
-        <v>1.697759886729965</v>
+        <v>26.19155118603</v>
       </c>
       <c r="S13">
-        <v>0.03470694313994423</v>
+        <v>0.04425042964682073</v>
       </c>
       <c r="T13">
-        <v>0.03470694313994423</v>
+        <v>0.04425042964682073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.561291218837888</v>
+        <v>0.5976133333333333</v>
       </c>
       <c r="H14">
-        <v>0.561291218837888</v>
+        <v>1.79284</v>
       </c>
       <c r="I14">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413879</v>
       </c>
       <c r="J14">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413878</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.28596421155457</v>
+        <v>0.6126093333333333</v>
       </c>
       <c r="N14">
-        <v>0.28596421155457</v>
+        <v>1.837828</v>
       </c>
       <c r="O14">
-        <v>0.03368518127430672</v>
+        <v>0.06259089811836467</v>
       </c>
       <c r="P14">
-        <v>0.03368518127430672</v>
+        <v>0.06259089811836467</v>
       </c>
       <c r="Q14">
-        <v>0.1605092008474803</v>
+        <v>0.3661035057244444</v>
       </c>
       <c r="R14">
-        <v>0.1605092008474803</v>
+        <v>3.29493155152</v>
       </c>
       <c r="S14">
-        <v>0.003281255347586994</v>
+        <v>0.005566762188922714</v>
       </c>
       <c r="T14">
-        <v>0.003281255347586994</v>
+        <v>0.005566762188922713</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.561291218837888</v>
+        <v>0.5976133333333333</v>
       </c>
       <c r="H15">
-        <v>0.561291218837888</v>
+        <v>1.79284</v>
       </c>
       <c r="I15">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413879</v>
       </c>
       <c r="J15">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413878</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.40396594433942</v>
+        <v>1.423547666666667</v>
       </c>
       <c r="N15">
-        <v>1.40396594433942</v>
+        <v>4.270643</v>
       </c>
       <c r="O15">
-        <v>0.1653803008457992</v>
+        <v>0.1454452652331487</v>
       </c>
       <c r="P15">
-        <v>0.1653803008457992</v>
+        <v>0.1454452652331487</v>
       </c>
       <c r="Q15">
-        <v>0.7880337561051595</v>
+        <v>0.8507310662355555</v>
       </c>
       <c r="R15">
-        <v>0.7880337561051595</v>
+        <v>7.656579596119999</v>
       </c>
       <c r="S15">
-        <v>0.01610960594561898</v>
+        <v>0.01293573390697468</v>
       </c>
       <c r="T15">
-        <v>0.01610960594561898</v>
+        <v>0.01293573390697468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.561291218837888</v>
+        <v>0.5976133333333333</v>
       </c>
       <c r="H16">
-        <v>0.561291218837888</v>
+        <v>1.79284</v>
       </c>
       <c r="I16">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413879</v>
       </c>
       <c r="J16">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413878</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.03891957622135</v>
+        <v>1.189604</v>
       </c>
       <c r="N16">
-        <v>1.03891957622135</v>
+        <v>3.568812</v>
       </c>
       <c r="O16">
-        <v>0.1223796294794876</v>
+        <v>0.1215430107146029</v>
       </c>
       <c r="P16">
-        <v>0.1223796294794876</v>
+        <v>0.1215430107146029</v>
       </c>
       <c r="Q16">
-        <v>0.5831364352118236</v>
+        <v>0.7109232117866667</v>
       </c>
       <c r="R16">
-        <v>0.5831364352118236</v>
+        <v>6.39830890608</v>
       </c>
       <c r="S16">
-        <v>0.01192093373033357</v>
+        <v>0.01080989499614417</v>
       </c>
       <c r="T16">
-        <v>0.01192093373033357</v>
+        <v>0.01080989499614417</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.561291218837888</v>
+        <v>0.5976133333333333</v>
       </c>
       <c r="H17">
-        <v>0.561291218837888</v>
+        <v>1.79284</v>
       </c>
       <c r="I17">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413879</v>
       </c>
       <c r="J17">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413878</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56544635492449</v>
+        <v>1.852141</v>
       </c>
       <c r="N17">
-        <v>1.56544635492449</v>
+        <v>5.556423000000001</v>
       </c>
       <c r="O17">
-        <v>0.1844019010426811</v>
+        <v>0.1892350676426402</v>
       </c>
       <c r="P17">
-        <v>0.1844019010426811</v>
+        <v>0.1892350676426403</v>
       </c>
       <c r="Q17">
-        <v>0.8786712925808959</v>
+        <v>1.106864156813333</v>
       </c>
       <c r="R17">
-        <v>0.8786712925808959</v>
+        <v>9.961777411320002</v>
       </c>
       <c r="S17">
-        <v>0.01796248976587875</v>
+        <v>0.0168303483579859</v>
       </c>
       <c r="T17">
-        <v>0.01796248976587875</v>
+        <v>0.0168303483579859</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.561291218837888</v>
+        <v>0.5976133333333333</v>
       </c>
       <c r="H18">
-        <v>0.561291218837888</v>
+        <v>1.79284</v>
       </c>
       <c r="I18">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413879</v>
       </c>
       <c r="J18">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413878</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.34051080281529</v>
+        <v>3.375897666666667</v>
       </c>
       <c r="N18">
-        <v>3.34051080281529</v>
+        <v>10.127693</v>
       </c>
       <c r="O18">
-        <v>0.3934957851190404</v>
+        <v>0.3449187849663162</v>
       </c>
       <c r="P18">
-        <v>0.3934957851190404</v>
+        <v>0.3449187849663163</v>
       </c>
       <c r="Q18">
-        <v>1.874999380053326</v>
+        <v>2.017481457568889</v>
       </c>
       <c r="R18">
-        <v>1.874999380053326</v>
+        <v>18.15733311812</v>
       </c>
       <c r="S18">
-        <v>0.03833021228713478</v>
+        <v>0.03067667836893183</v>
       </c>
       <c r="T18">
-        <v>0.03833021228713478</v>
+        <v>0.03067667836893183</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.561291218837888</v>
+        <v>0.5976133333333333</v>
       </c>
       <c r="H19">
-        <v>0.561291218837888</v>
+        <v>1.79284</v>
       </c>
       <c r="I19">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413879</v>
       </c>
       <c r="J19">
-        <v>0.09740946088034748</v>
+        <v>0.08893884504413878</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.854510986331834</v>
+        <v>1.333715</v>
       </c>
       <c r="N19">
-        <v>0.854510986331834</v>
+        <v>4.001145</v>
       </c>
       <c r="O19">
-        <v>0.100657202238685</v>
+        <v>0.1362669733249271</v>
       </c>
       <c r="P19">
-        <v>0.100657202238685</v>
+        <v>0.1362669733249272</v>
       </c>
       <c r="Q19">
-        <v>0.4796295130285609</v>
+        <v>0.7970458668666667</v>
       </c>
       <c r="R19">
-        <v>0.4796295130285609</v>
+        <v>7.173412801800001</v>
       </c>
       <c r="S19">
-        <v>0.009804963803794409</v>
+        <v>0.01211942722517949</v>
       </c>
       <c r="T19">
-        <v>0.009804963803794409</v>
+        <v>0.01211942722517949</v>
       </c>
     </row>
   </sheetData>
